--- a/IPL/Kolkata Knight Riders/Kuldeep Yadav .xlsx
+++ b/IPL/Kolkata Knight Riders/Kuldeep Yadav .xlsx
@@ -408,13 +408,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D2" t="str">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C3" t="str">
+        <v>12</v>
+      </c>
+      <c r="D3" t="str">
+        <v>19</v>
+      </c>
+      <c r="E3" t="str">
         <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>

--- a/IPL/Kolkata Knight Riders/Kuldeep Yadav .xlsx
+++ b/IPL/Kolkata Knight Riders/Kuldeep Yadav .xlsx
@@ -408,13 +408,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C2" t="str">
+        <v>12</v>
+      </c>
+      <c r="D2" t="str">
+        <v>19</v>
+      </c>
+      <c r="E2" t="str">
         <v>1</v>
-      </c>
-      <c r="D2" t="str">
-        <v>2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
@@ -428,13 +428,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="C3" t="str">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D3" t="str">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
